--- a/code/ga_us_and_back_calc_16-22wks.xlsx
+++ b/code/ga_us_and_back_calc_16-22wks.xlsx
@@ -8,14 +8,12 @@
   <sheets>
     <sheet name="US_gANC" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="US_stANC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Arm1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Arm3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -111,12 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve">mean = 0.053 (n = 823)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean = 15.569 (n = 2111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean = 15.9 (n = 2264)</t>
   </si>
 </sst>
 </file>
@@ -642,42 +634,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
 </file>